--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tgfb3-Acvrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tgfb3-Acvrl1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.277420333333333</v>
+        <v>1.277433666666667</v>
       </c>
       <c r="H2">
-        <v>3.832261</v>
+        <v>3.832301</v>
       </c>
       <c r="I2">
-        <v>0.01913942624337555</v>
+        <v>0.01786062203930835</v>
       </c>
       <c r="J2">
-        <v>0.01913942624337555</v>
+        <v>0.01786062203930835</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.816421</v>
+        <v>33.51218733333334</v>
       </c>
       <c r="N2">
-        <v>59.449263</v>
+        <v>100.536562</v>
       </c>
       <c r="O2">
-        <v>0.4265240049466206</v>
+        <v>0.5521050876757374</v>
       </c>
       <c r="P2">
-        <v>0.4265240049466206</v>
+        <v>0.5521050876757374</v>
       </c>
       <c r="Q2">
-        <v>25.31389911929367</v>
+        <v>42.80959634324022</v>
       </c>
       <c r="R2">
-        <v>227.825092073643</v>
+        <v>385.286367089162</v>
       </c>
       <c r="S2">
-        <v>0.008163424733704992</v>
+        <v>0.009860940296955547</v>
       </c>
       <c r="T2">
-        <v>0.008163424733704992</v>
+        <v>0.009860940296955546</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.277420333333333</v>
+        <v>1.277433666666667</v>
       </c>
       <c r="H3">
-        <v>3.832261</v>
+        <v>3.832301</v>
       </c>
       <c r="I3">
-        <v>0.01913942624337555</v>
+        <v>0.01786062203930835</v>
       </c>
       <c r="J3">
-        <v>0.01913942624337555</v>
+        <v>0.01786062203930835</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>18.17573333333333</v>
       </c>
       <c r="N3">
-        <v>54.52719999999999</v>
+        <v>54.5272</v>
       </c>
       <c r="O3">
-        <v>0.3912102278294916</v>
+        <v>0.2994407600362589</v>
       </c>
       <c r="P3">
-        <v>0.3912102278294917</v>
+        <v>0.299440760036259</v>
       </c>
       <c r="Q3">
-        <v>23.21805133324444</v>
+        <v>23.21829367635555</v>
       </c>
       <c r="R3">
-        <v>208.9624619992</v>
+        <v>208.9646430872</v>
       </c>
       <c r="S3">
-        <v>0.007487539301196697</v>
+        <v>0.00534819823817085</v>
       </c>
       <c r="T3">
-        <v>0.007487539301196699</v>
+        <v>0.00534819823817085</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.277420333333333</v>
+        <v>1.277433666666667</v>
       </c>
       <c r="H4">
-        <v>3.832261</v>
+        <v>3.832301</v>
       </c>
       <c r="I4">
-        <v>0.01913942624337555</v>
+        <v>0.01786062203930835</v>
       </c>
       <c r="J4">
-        <v>0.01913942624337555</v>
+        <v>0.01786062203930835</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.039044333333333</v>
+        <v>2.975281333333333</v>
       </c>
       <c r="N4">
-        <v>6.117133</v>
+        <v>8.925844</v>
       </c>
       <c r="O4">
-        <v>0.04388791272233494</v>
+        <v>0.04901703207436071</v>
       </c>
       <c r="P4">
-        <v>0.04388791272233494</v>
+        <v>0.04901703207436071</v>
       </c>
       <c r="Q4">
-        <v>2.604716691968112</v>
+        <v>3.800724543004888</v>
       </c>
       <c r="R4">
-        <v>23.442450227713</v>
+        <v>34.20652088704399</v>
       </c>
       <c r="S4">
-        <v>0.0008399894685248328</v>
+        <v>0.0008754746833688115</v>
       </c>
       <c r="T4">
-        <v>0.0008399894685248329</v>
+        <v>0.0008754746833688113</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.277420333333333</v>
+        <v>1.277433666666667</v>
       </c>
       <c r="H5">
-        <v>3.832261</v>
+        <v>3.832301</v>
       </c>
       <c r="I5">
-        <v>0.01913942624337555</v>
+        <v>0.01786062203930835</v>
       </c>
       <c r="J5">
-        <v>0.01913942624337555</v>
+        <v>0.01786062203930835</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.429072666666666</v>
+        <v>6.035726666666666</v>
       </c>
       <c r="N5">
-        <v>19.287218</v>
+        <v>18.10718</v>
       </c>
       <c r="O5">
-        <v>0.1383778545015528</v>
+        <v>0.09943712021364286</v>
       </c>
       <c r="P5">
-        <v>0.1383778545015528</v>
+        <v>0.09943712021364286</v>
       </c>
       <c r="Q5">
-        <v>8.212628148877556</v>
+        <v>7.710240446797776</v>
       </c>
       <c r="R5">
-        <v>73.91365333989799</v>
+        <v>69.39216402117999</v>
       </c>
       <c r="S5">
-        <v>0.002648472739949023</v>
+        <v>0.001776008820813144</v>
       </c>
       <c r="T5">
-        <v>0.002648472739949024</v>
+        <v>0.001776008820813144</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>45.44725166666666</v>
+        <v>45.44725166666667</v>
       </c>
       <c r="H6">
         <v>136.341755</v>
       </c>
       <c r="I6">
-        <v>0.6809303864519871</v>
+        <v>0.6354272679079697</v>
       </c>
       <c r="J6">
-        <v>0.6809303864519872</v>
+        <v>0.6354272679079697</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.816421</v>
+        <v>33.51218733333334</v>
       </c>
       <c r="N6">
-        <v>59.449263</v>
+        <v>100.536562</v>
       </c>
       <c r="O6">
-        <v>0.4265240049466206</v>
+        <v>0.5521050876757374</v>
       </c>
       <c r="P6">
-        <v>0.4265240049466206</v>
+        <v>0.5521050876757374</v>
       </c>
       <c r="Q6">
-        <v>900.6018723196182</v>
+        <v>1523.036811638479</v>
       </c>
       <c r="R6">
-        <v>8105.416850876564</v>
+        <v>13707.33130474631</v>
       </c>
       <c r="S6">
-        <v>0.2904331555193516</v>
+        <v>0.3508226274598839</v>
       </c>
       <c r="T6">
-        <v>0.2904331555193517</v>
+        <v>0.3508226274598839</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>45.44725166666666</v>
+        <v>45.44725166666667</v>
       </c>
       <c r="H7">
         <v>136.341755</v>
       </c>
       <c r="I7">
-        <v>0.6809303864519871</v>
+        <v>0.6354272679079697</v>
       </c>
       <c r="J7">
-        <v>0.6809303864519872</v>
+        <v>0.6354272679079697</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>18.17573333333333</v>
       </c>
       <c r="N7">
-        <v>54.52719999999999</v>
+        <v>54.5272</v>
       </c>
       <c r="O7">
-        <v>0.3912102278294916</v>
+        <v>0.2994407600362589</v>
       </c>
       <c r="P7">
-        <v>0.3912102278294917</v>
+        <v>0.299440760036259</v>
       </c>
       <c r="Q7">
-        <v>826.0371270262219</v>
+        <v>826.0371270262223</v>
       </c>
       <c r="R7">
-        <v>7434.334143235998</v>
+        <v>7434.334143236</v>
       </c>
       <c r="S7">
-        <v>0.2663869316199056</v>
+        <v>0.1902728240501259</v>
       </c>
       <c r="T7">
-        <v>0.2663869316199057</v>
+        <v>0.190272824050126</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>45.44725166666666</v>
+        <v>45.44725166666667</v>
       </c>
       <c r="H8">
         <v>136.341755</v>
       </c>
       <c r="I8">
-        <v>0.6809303864519871</v>
+        <v>0.6354272679079697</v>
       </c>
       <c r="J8">
-        <v>0.6809303864519872</v>
+        <v>0.6354272679079697</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.039044333333333</v>
+        <v>2.975281333333333</v>
       </c>
       <c r="N8">
-        <v>6.117133</v>
+        <v>8.925844</v>
       </c>
       <c r="O8">
-        <v>0.04388791272233494</v>
+        <v>0.04901703207436071</v>
       </c>
       <c r="P8">
-        <v>0.04388791272233494</v>
+        <v>0.04901703207436071</v>
       </c>
       <c r="Q8">
-        <v>92.66896097649055</v>
+        <v>135.2183595351356</v>
       </c>
       <c r="R8">
-        <v>834.0206487884149</v>
+        <v>1216.96523581622</v>
       </c>
       <c r="S8">
-        <v>0.02988461337059061</v>
+        <v>0.03114675877196835</v>
       </c>
       <c r="T8">
-        <v>0.02988461337059062</v>
+        <v>0.03114675877196835</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>45.44725166666666</v>
+        <v>45.44725166666667</v>
       </c>
       <c r="H9">
         <v>136.341755</v>
       </c>
       <c r="I9">
-        <v>0.6809303864519871</v>
+        <v>0.6354272679079697</v>
       </c>
       <c r="J9">
-        <v>0.6809303864519872</v>
+        <v>0.6354272679079697</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.429072666666666</v>
+        <v>6.035726666666666</v>
       </c>
       <c r="N9">
-        <v>19.287218</v>
+        <v>18.10718</v>
       </c>
       <c r="O9">
-        <v>0.1383778545015528</v>
+        <v>0.09943712021364286</v>
       </c>
       <c r="P9">
-        <v>0.1383778545015528</v>
+        <v>0.09943712021364286</v>
       </c>
       <c r="Q9">
-        <v>292.1836834652877</v>
+        <v>274.3071888112111</v>
       </c>
       <c r="R9">
-        <v>2629.65315118759</v>
+        <v>2468.7646993009</v>
       </c>
       <c r="S9">
-        <v>0.0942256859421392</v>
+        <v>0.06318505762599143</v>
       </c>
       <c r="T9">
-        <v>0.09422568594213925</v>
+        <v>0.06318505762599143</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.52156333333333</v>
+        <v>23.96074166666667</v>
       </c>
       <c r="H10">
-        <v>58.56468999999999</v>
+        <v>71.88222500000001</v>
       </c>
       <c r="I10">
-        <v>0.2924890983993922</v>
+        <v>0.3350105464235513</v>
       </c>
       <c r="J10">
-        <v>0.2924890983993922</v>
+        <v>0.3350105464235513</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.816421</v>
+        <v>33.51218733333334</v>
       </c>
       <c r="N10">
-        <v>59.449263</v>
+        <v>100.536562</v>
       </c>
       <c r="O10">
-        <v>0.4265240049466206</v>
+        <v>0.5521050876757374</v>
       </c>
       <c r="P10">
-        <v>0.4265240049466206</v>
+        <v>0.5521050876757374</v>
       </c>
       <c r="Q10">
-        <v>386.8475175914966</v>
+        <v>802.976863378939</v>
       </c>
       <c r="R10">
-        <v>3481.627658323469</v>
+        <v>7226.791770410451</v>
       </c>
       <c r="S10">
-        <v>0.124753621652535</v>
+        <v>0.1849610271054715</v>
       </c>
       <c r="T10">
-        <v>0.124753621652535</v>
+        <v>0.1849610271054715</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.52156333333333</v>
+        <v>23.96074166666667</v>
       </c>
       <c r="H11">
-        <v>58.56468999999999</v>
+        <v>71.88222500000001</v>
       </c>
       <c r="I11">
-        <v>0.2924890983993922</v>
+        <v>0.3350105464235513</v>
       </c>
       <c r="J11">
-        <v>0.2924890983993922</v>
+        <v>0.3350105464235513</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>18.17573333333333</v>
       </c>
       <c r="N11">
-        <v>54.52719999999999</v>
+        <v>54.5272</v>
       </c>
       <c r="O11">
-        <v>0.3912102278294916</v>
+        <v>0.2994407600362589</v>
       </c>
       <c r="P11">
-        <v>0.3912102278294917</v>
+        <v>0.299440760036259</v>
       </c>
       <c r="Q11">
-        <v>354.8187293964443</v>
+        <v>435.5040510022222</v>
       </c>
       <c r="R11">
-        <v>3193.368564567999</v>
+        <v>3919.53645902</v>
       </c>
       <c r="S11">
-        <v>0.1144247268224688</v>
+        <v>0.1003158126412306</v>
       </c>
       <c r="T11">
-        <v>0.1144247268224688</v>
+        <v>0.1003158126412306</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.52156333333333</v>
+        <v>23.96074166666667</v>
       </c>
       <c r="H12">
-        <v>58.56468999999999</v>
+        <v>71.88222500000001</v>
       </c>
       <c r="I12">
-        <v>0.2924890983993922</v>
+        <v>0.3350105464235513</v>
       </c>
       <c r="J12">
-        <v>0.2924890983993922</v>
+        <v>0.3350105464235513</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.039044333333333</v>
+        <v>2.975281333333333</v>
       </c>
       <c r="N12">
-        <v>6.117133</v>
+        <v>8.925844</v>
       </c>
       <c r="O12">
-        <v>0.04388791272233494</v>
+        <v>0.04901703207436071</v>
       </c>
       <c r="P12">
-        <v>0.04388791272233494</v>
+        <v>0.04901703207436071</v>
       </c>
       <c r="Q12">
-        <v>39.80533309264111</v>
+        <v>71.28994741365555</v>
       </c>
       <c r="R12">
-        <v>358.2479978337699</v>
+        <v>641.6095267229</v>
       </c>
       <c r="S12">
-        <v>0.01283673602278696</v>
+        <v>0.01642122269929232</v>
       </c>
       <c r="T12">
-        <v>0.01283673602278696</v>
+        <v>0.01642122269929232</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>19.52156333333333</v>
+        <v>23.96074166666667</v>
       </c>
       <c r="H13">
-        <v>58.56468999999999</v>
+        <v>71.88222500000001</v>
       </c>
       <c r="I13">
-        <v>0.2924890983993922</v>
+        <v>0.3350105464235513</v>
       </c>
       <c r="J13">
-        <v>0.2924890983993922</v>
+        <v>0.3350105464235513</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.429072666666666</v>
+        <v>6.035726666666666</v>
       </c>
       <c r="N13">
-        <v>19.287218</v>
+        <v>18.10718</v>
       </c>
       <c r="O13">
-        <v>0.1383778545015528</v>
+        <v>0.09943712021364286</v>
       </c>
       <c r="P13">
-        <v>0.1383778545015528</v>
+        <v>0.09943712021364286</v>
       </c>
       <c r="Q13">
-        <v>125.5055492369355</v>
+        <v>144.6204874306111</v>
       </c>
       <c r="R13">
-        <v>1129.54994313242</v>
+        <v>1301.5843868755</v>
       </c>
       <c r="S13">
-        <v>0.04047401390160146</v>
+        <v>0.03331248397755685</v>
       </c>
       <c r="T13">
-        <v>0.04047401390160148</v>
+        <v>0.03331248397755685</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4966396666666666</v>
+        <v>0.8369233333333334</v>
       </c>
       <c r="H14">
-        <v>1.489919</v>
+        <v>2.51077</v>
       </c>
       <c r="I14">
-        <v>0.007441088905245193</v>
+        <v>0.01170156362917063</v>
       </c>
       <c r="J14">
-        <v>0.007441088905245194</v>
+        <v>0.01170156362917063</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.816421</v>
+        <v>33.51218733333334</v>
       </c>
       <c r="N14">
-        <v>59.449263</v>
+        <v>100.536562</v>
       </c>
       <c r="O14">
-        <v>0.4265240049466206</v>
+        <v>0.5521050876757374</v>
       </c>
       <c r="P14">
-        <v>0.4265240049466206</v>
+        <v>0.5521050876757374</v>
       </c>
       <c r="Q14">
-        <v>9.841620719966334</v>
+        <v>28.04713153030445</v>
       </c>
       <c r="R14">
-        <v>88.574586479697</v>
+        <v>252.42418377274</v>
       </c>
       <c r="S14">
-        <v>0.003173803041029044</v>
+        <v>0.006460492813426472</v>
       </c>
       <c r="T14">
-        <v>0.003173803041029045</v>
+        <v>0.006460492813426471</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4966396666666666</v>
+        <v>0.8369233333333334</v>
       </c>
       <c r="H15">
-        <v>1.489919</v>
+        <v>2.51077</v>
       </c>
       <c r="I15">
-        <v>0.007441088905245193</v>
+        <v>0.01170156362917063</v>
       </c>
       <c r="J15">
-        <v>0.007441088905245194</v>
+        <v>0.01170156362917063</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>18.17573333333333</v>
       </c>
       <c r="N15">
-        <v>54.52719999999999</v>
+        <v>54.5272</v>
       </c>
       <c r="O15">
-        <v>0.3912102278294916</v>
+        <v>0.2994407600362589</v>
       </c>
       <c r="P15">
-        <v>0.3912102278294917</v>
+        <v>0.299440760036259</v>
       </c>
       <c r="Q15">
-        <v>9.026790144088887</v>
+        <v>15.21169532711111</v>
       </c>
       <c r="R15">
-        <v>81.24111129679999</v>
+        <v>136.905257944</v>
       </c>
       <c r="S15">
-        <v>0.002911030085920474</v>
+        <v>0.003503925106731498</v>
       </c>
       <c r="T15">
-        <v>0.002911030085920475</v>
+        <v>0.003503925106731498</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4966396666666666</v>
+        <v>0.8369233333333334</v>
       </c>
       <c r="H16">
-        <v>1.489919</v>
+        <v>2.51077</v>
       </c>
       <c r="I16">
-        <v>0.007441088905245193</v>
+        <v>0.01170156362917063</v>
       </c>
       <c r="J16">
-        <v>0.007441088905245194</v>
+        <v>0.01170156362917063</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.039044333333333</v>
+        <v>2.975281333333333</v>
       </c>
       <c r="N16">
-        <v>6.117133</v>
+        <v>8.925844</v>
       </c>
       <c r="O16">
-        <v>0.04388791272233494</v>
+        <v>0.04901703207436071</v>
       </c>
       <c r="P16">
-        <v>0.04388791272233494</v>
+        <v>0.04901703207436071</v>
       </c>
       <c r="Q16">
-        <v>1.012670298025222</v>
+        <v>2.490082371097778</v>
       </c>
       <c r="R16">
-        <v>9.114032682227</v>
+        <v>22.41074133988</v>
       </c>
       <c r="S16">
-        <v>0.0003265738604325359</v>
+        <v>0.0005735759197312296</v>
       </c>
       <c r="T16">
-        <v>0.000326573860432536</v>
+        <v>0.0005735759197312295</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4966396666666666</v>
+        <v>0.8369233333333334</v>
       </c>
       <c r="H17">
-        <v>1.489919</v>
+        <v>2.51077</v>
       </c>
       <c r="I17">
-        <v>0.007441088905245193</v>
+        <v>0.01170156362917063</v>
       </c>
       <c r="J17">
-        <v>0.007441088905245194</v>
+        <v>0.01170156362917063</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.429072666666666</v>
+        <v>6.035726666666666</v>
       </c>
       <c r="N17">
-        <v>19.287218</v>
+        <v>18.10718</v>
       </c>
       <c r="O17">
-        <v>0.1383778545015528</v>
+        <v>0.09943712021364286</v>
       </c>
       <c r="P17">
-        <v>0.1383778545015528</v>
+        <v>0.09943712021364286</v>
       </c>
       <c r="Q17">
-        <v>3.192932506149111</v>
+        <v>5.051440480955556</v>
       </c>
       <c r="R17">
-        <v>28.736392555342</v>
+        <v>45.46296432859999</v>
       </c>
       <c r="S17">
-        <v>0.001029681917863138</v>
+        <v>0.001163569789281431</v>
       </c>
       <c r="T17">
-        <v>0.001029681917863139</v>
+        <v>0.001163569789281431</v>
       </c>
     </row>
   </sheetData>
